--- a/biology/Médecine/Georges_Chicotot/Georges_Chicotot.xlsx
+++ b/biology/Médecine/Georges_Chicotot/Georges_Chicotot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Georges-Alexandre Chicotot, né à Paris le 31 janvier 1855 et mort à Gurcy-le-Châtel le 7 avril 1937[1], est un peintre, médecin et radiologue français qui a marqué le début du XXe siècle par ses productions picturales représentant des actes médicaux innovants. Il meurt en 1937 d'une radiodermite due à une surexposition aux rayons X[réf. nécessaire].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Georges-Alexandre Chicotot, né à Paris le 31 janvier 1855 et mort à Gurcy-le-Châtel le 7 avril 1937, est un peintre, médecin et radiologue français qui a marqué le début du XXe siècle par ses productions picturales représentant des actes médicaux innovants. Il meurt en 1937 d'une radiodermite due à une surexposition aux rayons X[réf. nécessaire].
 </t>
         </is>
       </c>
@@ -513,11 +525,51 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Formation
-Élève de Hanoteau, de J. Blanc  et de Hébert, Paul Richer[2], Georges Chicotot étudie à l'école des Beaux-Arts de Paris. En 1880, il débute au Salon avec Le Verger et Portrait de femme. Chaque année il y expose des scènes de genre. Les premières ont un caractère religieux et sentimental. Puis il emprunte ses sujets à l'Histoire. Enfin, il se spécialise à partir de 1904 dans la représentation de scènes dans le domaine médical[3].
-En 1889, il obtient une médaille de 3e classe au Salon des artistes français ainsi qu'une mention honorable et une médaille de bronze à l'exposition universelle[4]. Il est nommé officier de la Légion d'honneur en 1922[5].
-Œuvres référencées
-Œuvres référencées comme produites par Georges Chicotot : 
+          <t>Formation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Élève de Hanoteau, de J. Blanc  et de Hébert, Paul Richer, Georges Chicotot étudie à l'école des Beaux-Arts de Paris. En 1880, il débute au Salon avec Le Verger et Portrait de femme. Chaque année il y expose des scènes de genre. Les premières ont un caractère religieux et sentimental. Puis il emprunte ses sujets à l'Histoire. Enfin, il se spécialise à partir de 1904 dans la représentation de scènes dans le domaine médical.
+En 1889, il obtient une médaille de 3e classe au Salon des artistes français ainsi qu'une mention honorable et une médaille de bronze à l'exposition universelle. Il est nommé officier de la Légion d'honneur en 1922.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Georges_Chicotot</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Georges_Chicotot</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Carrière de peintre</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Œuvres référencées</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Œuvres référencées comme produites par Georges Chicotot : 
 Le Verger
 Portrait de femme
 La Charité
@@ -525,41 +577,10 @@
 La Mort de sainte Catherine de Sienne
 Les Archives du couvent
 L'Ange peintre dans l'atelier du moine assoupi Église Saint-Michel des Batignolles, Paris
-L'autopsie au XXe siècle[6]
-Le Croup, en 1904[7]
-Les Premiers Traitements du cancer aux rayons X, 1907[3],[8]
-Leçon d'anatomie, médecine enfantine[9]</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Georges_Chicotot</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Georges_Chicotot</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Carrière de médecin</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">De 1884 à 1899, il est externe des hôpitaux de Paris (aujourd'hui Assistance Publique - Hôpitaux de Paris). Il devient le 1er janvier 1907 préparateur de radiothérapie à l'hôpital Broca, puis préparateur à l'hôpital Saint-Louis, le 1er février 1910. Plus tard, le 16 janvier 1914, il prend le poste de chef de laboratoire de radiologie à l'hôpital Hérold.
-</t>
+L'autopsie au XXe siècle
+Le Croup, en 1904
+Les Premiers Traitements du cancer aux rayons X, 1907,
+Leçon d'anatomie, médecine enfantine</t>
         </is>
       </c>
     </row>
@@ -584,10 +605,45 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Carrière de médecin</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De 1884 à 1899, il est externe des hôpitaux de Paris (aujourd'hui Assistance Publique - Hôpitaux de Paris). Il devient le 1er janvier 1907 préparateur de radiothérapie à l'hôpital Broca, puis préparateur à l'hôpital Saint-Louis, le 1er février 1910. Plus tard, le 16 janvier 1914, il prend le poste de chef de laboratoire de radiologie à l'hôpital Hérold.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Georges_Chicotot</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Georges_Chicotot</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve"> Officier de la Légion d'honneur (1922).</t>
         </is>
